--- a/Interface 문서/고객용_인터페이스설계서_V0.1_20200227.xlsx
+++ b/Interface 문서/고객용_인터페이스설계서_V0.1_20200227.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="5" rupBuild=""/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="749" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,10 @@
     <sheet name="IF_SINCAR_AGENT_012" sheetId="21" r:id="rId15"/>
     <sheet name="IF_SINCAR_AGENT_013" sheetId="22" r:id="rId16"/>
     <sheet name="IF_SINCAR_AGENT_014" sheetId="23" r:id="rId17"/>
-    <sheet name="작성표준" sheetId="5" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId19"/>
+    <sheet name="IF_SINCAR_AGENT_015" sheetId="3" r:id="rId18"/>
+    <sheet name="IF_SINCAR_AGENT_016" sheetId="4" r:id="rId19"/>
+    <sheet name="작성표준" sheetId="5" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">겉표지!$A$1:$N$33</definedName>
@@ -630,6 +632,182 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bdlee</author>
+  </authors>
+  <commentList>
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> : M
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> : O
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+          </rPr>
+          <t>조건부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> : C</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bdlee</author>
+  </authors>
+  <commentList>
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> : M
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> : O
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+          </rPr>
+          <t>조건부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+          </rPr>
+          <t>옵션</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> : C</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>bdlee</author>
@@ -1422,7 +1600,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
   <si>
     <t>버전</t>
   </si>
@@ -3047,6 +3225,289 @@
   </si>
   <si>
     <t>카드등록</t>
+  </si>
+  <si>
+    <t>추천인 코드</t>
+  </si>
+  <si>
+    <t>MEMBER_CODE</t>
+  </si>
+  <si>
+    <t>RECOM_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"recommend": [{"RESERVE_RESULT":"1","CAUSE":"형식에 맞지 않습니다."}]}</t>
+  </si>
+  <si>
+    <t>RECOMMEND_RESULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"recommend": [{"RECOMMEND_RESULT":"1","CAUSE":"형식에 맞지 않습니다."}]}</t>
+  </si>
+  <si>
+    <t>카드 조회</t>
+  </si>
+  <si>
+    <t>카드 등록</t>
+  </si>
+  <si>
+    <t>카드종(개인,법인)</t>
+  </si>
+  <si>
+    <t>카드번호</t>
+  </si>
+  <si>
+    <t>유효기간</t>
+  </si>
+  <si>
+    <t>유효기간(년)</t>
+  </si>
+  <si>
+    <t>유효기간(월)</t>
+  </si>
+  <si>
+    <t>생년월일</t>
+  </si>
+  <si>
+    <t>비밀번호(앞 2자리)</t>
+  </si>
+  <si>
+    <t>카드종류(개인,법인)</t>
+  </si>
+  <si>
+    <t>개인</t>
+  </si>
+  <si>
+    <t>카드종류(0:개인, 1:법인)</t>
+  </si>
+  <si>
+    <t>CARD_TYPE</t>
+  </si>
+  <si>
+    <t>CARD</t>
+  </si>
+  <si>
+    <t>CARD_NUMBER</t>
+  </si>
+  <si>
+    <t>CARD_EXPIRE_YEAR</t>
+  </si>
+  <si>
+    <t>CARD_EXPIRE_MONTH</t>
+  </si>
+  <si>
+    <t>CARD_BIRTH</t>
+  </si>
+  <si>
+    <t>CARD_PASSWORD</t>
+  </si>
+  <si>
+    <t>1234-5678-1234-4321</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"card_register": [{"RECOMMEND_RESULT":"1","CAUSE":"형식에 맞지 않습니다."}]}</t>
+  </si>
+  <si>
+    <t>REGISTER_RESULT</t>
+  </si>
+  <si>
+    <t>등록 카드조회</t>
+  </si>
+  <si>
+    <t>CARD_SEQ</t>
+  </si>
+  <si>
+    <t>카드 seq</t>
+  </si>
+  <si>
+    <t>CARD_NAME</t>
+  </si>
+  <si>
+    <t>카드이름</t>
+  </si>
+  <si>
+    <t>BC카드</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"card_list": [{"TOTAL":"5"}],"data":[{"CARD_SEQ":"1","CARD_NAME":"BC카드","CAR_NUMBER":"1234-5678-1234-4321"},{},{}…]}</t>
+  </si>
+  <si>
+    <t>쿠폰 조회</t>
+  </si>
+  <si>
+    <t>등록 쿠폰조회</t>
+  </si>
+  <si>
+    <t>COUPONE_SEQ</t>
+  </si>
+  <si>
+    <t>COUPONE_TITLE</t>
+  </si>
+  <si>
+    <t>COUPONE_CONTENT</t>
+  </si>
+  <si>
+    <t>COUPONE_DATE</t>
+  </si>
+  <si>
+    <t>COUPONE_</t>
+  </si>
+  <si>
+    <t>COUPONE_YN</t>
+  </si>
+  <si>
+    <t>사용유무</t>
+  </si>
+  <si>
+    <t>~2019.12.31</t>
+  </si>
+  <si>
+    <t>쿠폰 seq</t>
+  </si>
+  <si>
+    <t>2000원 할인 쿠폰</t>
+  </si>
+  <si>
+    <t>회원 가입을 축하해요!</t>
+  </si>
+  <si>
+    <t>2~6 반복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {"coupone_list": [{"YEAR":"2020","MONTH":"12","TOTAL_COST":"1,350,000","RESERVE_NUM":"183","COMPLETE_NUM":"161","CANCEL_NUM":"22","AVERAGE":"4.24/5.0"}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"coupone_list": [{"TOTAL":"5"}],"data":[{"CARD_SEQ":"1","CARD_NAME":"BC카드","CAR_NUMBER":"1234-5678-1234-4321"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"coupone_list": [{"TOTAL":"5"}],"data":[{"COUPONE_SEQ":"1","COUPONE_TITLE":"BC카드","COUPONE_CONTENT":"1234-5678-1234-4321"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"coupone_list": [{"TOTAL":"5"}],"data":[{"COUPONE_SEQ":"1","COUPONE_TITLE":"2000원 할인 쿠폰","COUPONE_CONTENT":"1234-5678-1234-4321"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"coupone_list": [{"TOTAL":"5"}],"data":[{"COUPONE_SEQ":"1","COUPONE_TITLE":"2000원 할인 쿠폰","COUPONE_CONTENT":"회원 가입을 축하해요!"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"coupone_list": [{"TOTAL":"5"}],"data":[{"COUPONE_SEQ":"1","COUPONE_TITLE":"2000원 할인 쿠폰","COUPONE_CONTENT":"회원 가입을 축하해요!","":""},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"coupone_list": [{"TOTAL":"5"}],"data":[{"COUPONE_SEQ":"1","COUPONE_TITLE":"2000원 할인 쿠폰","COUPONE_CONTENT":"회원 가입을 축하해요!","COUPONE_DATE":"~2019.12.31","COUPONE_YN":"N"},{},{}…]}</t>
+  </si>
+  <si>
+    <t>차량등록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {"car_register": [{"PROFILE_RESULT":"0","CAUSE":""}]}</t>
+  </si>
+  <si>
+    <t>제조사</t>
+  </si>
+  <si>
+    <t>모델명</t>
+  </si>
+  <si>
+    <t>차량번호</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CAR_COMPANY</t>
+  </si>
+  <si>
+    <t>현대</t>
+  </si>
+  <si>
+    <t>싼타페</t>
+  </si>
+  <si>
+    <t>12가1234</t>
+  </si>
+  <si>
+    <t>REGISTERRESULT</t>
+  </si>
+  <si>
+    <t>등록차량 조회</t>
+  </si>
+  <si>
+    <t>CAR_SEQ</t>
+  </si>
+  <si>
+    <t>2~5 갯수만큼 반복</t>
+  </si>
+  <si/>
+  <si>
+    <t xml:space="preserve"> {"car_list": [{"TOTAL":"5"}],"data":[{"CAR_SEQ":"1","CAR_COMPANY":"BC카드","CAR_NUMBER":"1234-5678-1234-4321"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"card_list": [{"TOTAL":"5"}],"data":[{"CARD_SEQ":"1","CARD_NAME":"BC카드","CARD_NUMBER":"1234-5678-1234-4321"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"car_list": [{"TOTAL":"5"}],"data":[{"CAR_SEQ":"1","CAR_COMPANY":"현대","CAR_MODEL":"싼타페","CAR_NUMBER":"12가1234"},{},{}…]}</t>
+  </si>
+  <si>
+    <t>정보 알림</t>
+  </si>
+  <si>
+    <t>마케팅 알림</t>
+  </si>
+  <si>
+    <t>최근 검색어 조회</t>
+  </si>
+  <si>
+    <t>예약신청</t>
+  </si>
+  <si>
+    <t>IF_SINCAR_AGENT_015</t>
+  </si>
+  <si>
+    <t>IF_SINCAR_AGENT_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {"search_list": [{"SETTING_RESULT":"0","CAUSE":""}]}</t>
+  </si>
+  <si>
+    <t>WORD_SEQ</t>
+  </si>
+  <si>
+    <t>SEARCH_SEQ</t>
+  </si>
+  <si>
+    <t>검색어 seq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">최근 검색어 </t>
+  </si>
+  <si>
+    <t>2~3 반복</t>
+  </si>
+  <si>
+    <t>석촌호수로 911</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"search_list": [{"TOTAL":"5"}],"data":[{"SEARCH_SEQ":"1","SEARCH_WORD":"현대","CAR_MODEL":"싼타페","CAR_NUMBER":"12가1234"},{},{}…]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"search_list": [{"TOTAL":"5"}],"data":[{"SEARCH_SEQ":"1","SEARCH_WORD":"석촌호수로 911"},{},{}…]}</t>
+  </si>
+  <si>
+    <t>차량 제조사</t>
+  </si>
+  <si>
+    <t>차종</t>
+  </si>
+  <si>
+    <t>차량 모델명</t>
+  </si>
+  <si>
+    <t>차량 번호</t>
+  </si>
+  <si>
+    <t>35나 8743</t>
+  </si>
+  <si>
+    <t>세차장소(0:실내, 1:실외)</t>
   </si>
 </sst>
 </file>
@@ -3061,7 +3522,7 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_-&quot;₩&quot;* #,##0_-;\\\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="65">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -3349,11 +3810,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9.0"/>
       <name val="돋움_x0000_"/>
       <color rgb="FF000000"/>
@@ -3388,11 +3844,61 @@
     <font>
       <b/>
       <sz val="9.0"/>
+      <name val="돋움_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <name val="Tahoma_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="Tahoma_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="돋움_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="굴림체"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="돋움"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="NanumGothic"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <name val="NanumGothic"/>
+      <color theme="10"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3440,12 +3946,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.150000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -3453,12 +3953,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -4332,7 +4826,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -4353,16 +4847,16 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="48" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="48" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="49" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="49" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="48" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="48" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="50" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="50" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="51" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -4371,92 +4865,92 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="52" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4539,16 +5033,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4782,13 +5276,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -5041,11 +5535,20 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="23" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="23" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="30" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -5841,7 +6344,7 @@
   </sheetPr>
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19:O19"/>
     </sheetView>
   </sheetViews>
@@ -5944,7 +6447,7 @@
       <c r="C5" s="153"/>
       <c r="D5" s="182" t="str">
         <f>'인터페이스 목록'!D10</f>
-        <v>추천인 등록 (작업예정)</v>
+        <v>추천인 등록</v>
       </c>
       <c r="E5" s="183"/>
       <c r="F5" s="183"/>
@@ -5964,7 +6467,7 @@
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="175" t="s">
-        <v>302</v>
+        <v>522</v>
       </c>
       <c r="E6" s="176"/>
       <c r="F6" s="176"/>
@@ -6169,7 +6672,7 @@
       </c>
       <c r="C15" s="140"/>
       <c r="D15" s="141" t="s">
-        <v>303</v>
+        <v>522</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -6180,7 +6683,7 @@
       </c>
       <c r="J15" s="144"/>
       <c r="K15" s="145" t="s">
-        <v>300</v>
+        <v>522</v>
       </c>
       <c r="L15" s="145"/>
       <c r="M15" s="145"/>
@@ -6253,7 +6756,7 @@
       </c>
       <c r="C19" s="148"/>
       <c r="D19" s="149" t="s">
-        <v>371</v>
+        <v>544</v>
       </c>
       <c r="E19" s="150"/>
       <c r="F19" s="150"/>
@@ -6375,44 +6878,44 @@
       <c r="B24" s="58">
         <v>1</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="100">
-        <v>1098761234</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="59">
-        <v>11</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>140</v>
+      <c r="C24" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="64">
+        <v>10</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="I24" s="61">
         <v>1</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="K24" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="L24" s="63">
-        <v>10</v>
+        <v>543</v>
+      </c>
+      <c r="K24" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="L24" s="63" t="s">
+        <v>277</v>
       </c>
       <c r="M24" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="N24" s="64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O24" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
@@ -6420,13 +6923,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>453</v>
+        <v>541</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="E25" s="63">
-        <v>21352</v>
+        <v>539</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>519</v>
       </c>
       <c r="F25" s="63" t="s">
         <v>232</v>
@@ -6441,111 +6944,61 @@
         <v>2</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="K25" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="L25" s="63">
-        <v>1</v>
+        <v>450</v>
+      </c>
+      <c r="K25" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="63" t="s">
+        <v>287</v>
       </c>
       <c r="M25" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="N25" s="64">
-        <v>10</v>
-      </c>
-      <c r="O25" s="65" t="s">
-        <v>140</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O25" s="65"/>
     </row>
     <row r="26" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B26" s="58">
         <v>3</v>
       </c>
-      <c r="C26" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="E26" s="59">
-        <v>1</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="G26" s="59">
-        <v>9</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>140</v>
-      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="61">
         <v>3</v>
       </c>
-      <c r="J26" s="63" t="s">
-        <v>337</v>
-      </c>
-      <c r="K26" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="L26" s="63">
-        <v>20</v>
-      </c>
-      <c r="M26" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N26" s="64">
-        <v>10</v>
-      </c>
-      <c r="O26" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="65"/>
     </row>
     <row r="27" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B27" s="58">
         <v>4</v>
       </c>
-      <c r="C27" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" s="59">
-        <v>20</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="59">
-        <v>3</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>140</v>
-      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="62">
         <v>4</v>
       </c>
-      <c r="J27" s="113" t="s">
-        <v>345</v>
-      </c>
-      <c r="K27" s="63" t="s">
-        <v>346</v>
-      </c>
-      <c r="L27" s="63">
-        <v>20</v>
-      </c>
-      <c r="M27" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N27" s="64">
-        <v>10</v>
-      </c>
-      <c r="O27" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="65"/>
     </row>
     <row r="28" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B28" s="58">
@@ -6560,24 +7013,12 @@
       <c r="I28" s="61">
         <v>5</v>
       </c>
-      <c r="J28" s="113" t="s">
-        <v>310</v>
-      </c>
-      <c r="K28" s="63" t="s">
-        <v>338</v>
-      </c>
-      <c r="L28" s="63">
-        <v>0</v>
-      </c>
-      <c r="M28" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N28" s="64">
-        <v>1</v>
-      </c>
-      <c r="O28" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="65"/>
     </row>
     <row r="29" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B29" s="58">
@@ -6592,24 +7033,12 @@
       <c r="I29" s="62">
         <v>6</v>
       </c>
-      <c r="J29" s="113" t="s">
-        <v>315</v>
-      </c>
-      <c r="K29" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="L29" s="63">
-        <v>2020</v>
-      </c>
-      <c r="M29" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N29" s="64">
-        <v>4</v>
-      </c>
-      <c r="O29" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="65"/>
     </row>
     <row r="30" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B30" s="58">
@@ -6624,24 +7053,12 @@
       <c r="I30" s="61">
         <v>7</v>
       </c>
-      <c r="J30" s="113" t="s">
-        <v>316</v>
-      </c>
-      <c r="K30" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="L30" s="63">
-        <v>2</v>
-      </c>
-      <c r="M30" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N30" s="64">
-        <v>2</v>
-      </c>
-      <c r="O30" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="65"/>
     </row>
     <row r="31" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B31" s="58">
@@ -6656,24 +7073,12 @@
       <c r="I31" s="62">
         <v>8</v>
       </c>
-      <c r="J31" s="113" t="s">
-        <v>388</v>
-      </c>
-      <c r="K31" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="L31" s="63">
-        <v>20</v>
-      </c>
-      <c r="M31" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N31" s="64">
-        <v>2</v>
-      </c>
-      <c r="O31" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="65"/>
     </row>
     <row r="32" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B32" s="58">
@@ -6688,24 +7093,12 @@
       <c r="I32" s="61">
         <v>9</v>
       </c>
-      <c r="J32" s="113" t="s">
-        <v>317</v>
-      </c>
-      <c r="K32" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="L32" s="112">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="M32" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N32" s="64">
-        <v>5</v>
-      </c>
-      <c r="O32" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="65"/>
     </row>
     <row r="33" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B33" s="58">
@@ -6720,24 +7113,12 @@
       <c r="I33" s="62">
         <v>10</v>
       </c>
-      <c r="J33" s="113" t="s">
-        <v>322</v>
-      </c>
-      <c r="K33" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="L33" s="63" t="s">
-        <v>320</v>
-      </c>
-      <c r="M33" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N33" s="64">
-        <v>50</v>
-      </c>
-      <c r="O33" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="65"/>
     </row>
     <row r="34" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B34" s="58">
@@ -6752,24 +7133,12 @@
       <c r="I34" s="61">
         <v>11</v>
       </c>
-      <c r="J34" s="113" t="s">
-        <v>323</v>
-      </c>
-      <c r="K34" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="L34" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="M34" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N34" s="64">
-        <v>50</v>
-      </c>
-      <c r="O34" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="65"/>
     </row>
     <row r="35" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B35" s="58">
@@ -6784,22 +7153,12 @@
       <c r="I35" s="62">
         <v>12</v>
       </c>
-      <c r="J35" s="113" t="s">
-        <v>325</v>
-      </c>
-      <c r="K35" s="63" t="s">
-        <v>324</v>
-      </c>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
       <c r="L35" s="63"/>
-      <c r="M35" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N35" s="64">
-        <v>100</v>
-      </c>
-      <c r="O35" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="M35" s="63"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="65"/>
     </row>
     <row r="36" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B36" s="58">
@@ -6814,22 +7173,12 @@
       <c r="I36" s="61">
         <v>13</v>
       </c>
-      <c r="J36" s="113" t="s">
-        <v>329</v>
-      </c>
-      <c r="K36" s="63" t="s">
-        <v>326</v>
-      </c>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
       <c r="L36" s="63"/>
-      <c r="M36" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N36" s="64">
-        <v>100</v>
-      </c>
-      <c r="O36" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="M36" s="63"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="65"/>
     </row>
     <row r="37" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B37" s="58">
@@ -6844,22 +7193,12 @@
       <c r="I37" s="62">
         <v>14</v>
       </c>
-      <c r="J37" s="113" t="s">
-        <v>330</v>
-      </c>
-      <c r="K37" s="63" t="s">
-        <v>327</v>
-      </c>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
       <c r="L37" s="63"/>
-      <c r="M37" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N37" s="64">
-        <v>11</v>
-      </c>
-      <c r="O37" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="M37" s="63"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="65"/>
     </row>
     <row r="38" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B38" s="58">
@@ -6874,22 +7213,12 @@
       <c r="I38" s="61">
         <v>15</v>
       </c>
-      <c r="J38" s="113" t="s">
-        <v>331</v>
-      </c>
-      <c r="K38" s="63" t="s">
-        <v>328</v>
-      </c>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
       <c r="L38" s="63"/>
-      <c r="M38" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N38" s="64">
-        <v>20</v>
-      </c>
-      <c r="O38" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="M38" s="63"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
     </row>
     <row r="39" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B39" s="58">
@@ -6904,12 +7233,8 @@
       <c r="I39" s="62">
         <v>16</v>
       </c>
-      <c r="J39" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="K39" s="63" t="s">
-        <v>347</v>
-      </c>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
       <c r="L39" s="63"/>
       <c r="M39" s="63"/>
       <c r="N39" s="64"/>
@@ -7572,7 +7897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9213,8 +9538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -9295,7 +9620,7 @@
       <c r="C4" s="153"/>
       <c r="D4" s="170" t="str">
         <f>'인터페이스 목록'!C12</f>
-        <v>카드등록</v>
+        <v>카드 등록</v>
       </c>
       <c r="E4" s="171"/>
       <c r="F4" s="171"/>
@@ -9314,9 +9639,9 @@
         <v>14</v>
       </c>
       <c r="C5" s="153"/>
-      <c r="D5" s="182">
+      <c r="D5" s="182" t="str">
         <f>'인터페이스 목록'!D12</f>
-        <v>0</v>
+        <v>카드 등록</v>
       </c>
       <c r="E5" s="183"/>
       <c r="F5" s="183"/>
@@ -9336,7 +9661,7 @@
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="175" t="s">
-        <v>357</v>
+        <v>538</v>
       </c>
       <c r="E6" s="176"/>
       <c r="F6" s="176"/>
@@ -9541,7 +9866,7 @@
       </c>
       <c r="C15" s="140"/>
       <c r="D15" s="141" t="s">
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -9623,7 +9948,7 @@
       </c>
       <c r="C19" s="148"/>
       <c r="D19" s="149" t="s">
-        <v>393</v>
+        <v>565</v>
       </c>
       <c r="E19" s="150"/>
       <c r="F19" s="150"/>
@@ -9745,44 +10070,44 @@
       <c r="B24" s="58">
         <v>1</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="100">
-        <v>1098761234</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="59">
-        <v>11</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>140</v>
+      <c r="C24" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="64">
+        <v>10</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="I24" s="61">
         <v>1</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="K24" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="L24" s="63">
-        <v>4</v>
+        <v>566</v>
+      </c>
+      <c r="K24" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="L24" s="63" t="s">
+        <v>277</v>
       </c>
       <c r="M24" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="N24" s="64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
@@ -9790,13 +10115,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>453</v>
+        <v>557</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>452</v>
+        <v>556</v>
       </c>
       <c r="E25" s="63">
-        <v>21352</v>
+        <v>1</v>
       </c>
       <c r="F25" s="63" t="s">
         <v>232</v>
@@ -9810,76 +10135,82 @@
       <c r="I25" s="62">
         <v>2</v>
       </c>
-      <c r="J25" s="113" t="s">
-        <v>365</v>
-      </c>
-      <c r="K25" s="63" t="s">
-        <v>366</v>
+      <c r="J25" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="K25" s="104" t="s">
+        <v>279</v>
       </c>
       <c r="L25" s="63" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="M25" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="N25" s="64">
-        <v>50</v>
-      </c>
-      <c r="O25" s="65" t="s">
-        <v>140</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O25" s="65"/>
     </row>
     <row r="26" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B26" s="58">
         <v>3</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
+      <c r="C26" s="59" t="s">
+        <v>559</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G26" s="64">
+        <v>30</v>
+      </c>
+      <c r="H26" s="65" t="s">
+        <v>305</v>
+      </c>
       <c r="I26" s="61">
         <v>3</v>
       </c>
-      <c r="J26" s="113" t="s">
-        <v>359</v>
-      </c>
-      <c r="K26" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="L26" s="63">
-        <v>20</v>
-      </c>
-      <c r="M26" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N26" s="63">
-        <v>10</v>
-      </c>
-      <c r="O26" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="J26" s="113"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="65"/>
     </row>
     <row r="27" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B27" s="58">
         <v>4</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="60"/>
+      <c r="C27" s="59" t="s">
+        <v>560</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="E27" s="59">
+        <v>22</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G27" s="64">
+        <v>4</v>
+      </c>
+      <c r="H27" s="65" t="s">
+        <v>305</v>
+      </c>
       <c r="I27" s="62">
         <v>4</v>
       </c>
-      <c r="J27" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="K27" s="63" t="s">
-        <v>369</v>
-      </c>
+      <c r="J27" s="113"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="63"/>
       <c r="M27" s="63"/>
       <c r="N27" s="64"/>
@@ -9889,12 +10220,24 @@
       <c r="B28" s="58">
         <v>5</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="60"/>
+      <c r="C28" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="E28" s="59">
+        <v>2</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="64">
+        <v>2</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>305</v>
+      </c>
       <c r="I28" s="61">
         <v>5</v>
       </c>
@@ -9909,12 +10252,24 @@
       <c r="B29" s="58">
         <v>6</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="60"/>
+      <c r="C29" s="59" t="s">
+        <v>562</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="E29" s="59">
+        <v>901213</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="64">
+        <v>10</v>
+      </c>
+      <c r="H29" s="65" t="s">
+        <v>305</v>
+      </c>
       <c r="I29" s="62">
         <v>6</v>
       </c>
@@ -9929,12 +10284,24 @@
       <c r="B30" s="58">
         <v>7</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="60"/>
+      <c r="C30" s="59" t="s">
+        <v>563</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="E30" s="59">
+        <v>12</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G30" s="64">
+        <v>2</v>
+      </c>
+      <c r="H30" s="65" t="s">
+        <v>305</v>
+      </c>
       <c r="I30" s="61">
         <v>7</v>
       </c>
@@ -10782,8 +11149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:H26"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -10864,7 +11231,7 @@
       <c r="C4" s="153"/>
       <c r="D4" s="170" t="str">
         <f>'인터페이스 목록'!C13</f>
-        <v>활동지역</v>
+        <v>카드 조회</v>
       </c>
       <c r="E4" s="171"/>
       <c r="F4" s="171"/>
@@ -10885,7 +11252,7 @@
       <c r="C5" s="153"/>
       <c r="D5" s="182" t="str">
         <f>'인터페이스 목록'!D13</f>
-        <v>구/군 지역조회</v>
+        <v>등록 카드조회</v>
       </c>
       <c r="E5" s="183"/>
       <c r="F5" s="183"/>
@@ -10905,7 +11272,7 @@
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="175" t="s">
-        <v>361</v>
+        <v>567</v>
       </c>
       <c r="E6" s="176"/>
       <c r="F6" s="176"/>
@@ -11110,7 +11477,7 @@
       </c>
       <c r="C15" s="140"/>
       <c r="D15" s="141" t="s">
-        <v>360</v>
+        <v>567</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -11192,7 +11559,7 @@
       </c>
       <c r="C19" s="148"/>
       <c r="D19" s="149" t="s">
-        <v>394</v>
+        <v>611</v>
       </c>
       <c r="E19" s="150"/>
       <c r="F19" s="150"/>
@@ -11314,23 +11681,23 @@
       <c r="B24" s="58">
         <v>1</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="100">
-        <v>1098761234</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="59">
-        <v>11</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>140</v>
+      <c r="C24" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="64">
+        <v>10</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="I24" s="61">
         <v>1</v>
@@ -11358,88 +11725,64 @@
       <c r="B25" s="58">
         <v>2</v>
       </c>
-      <c r="C25" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>364</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="59">
-        <v>20</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>305</v>
-      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="62">
         <v>2</v>
       </c>
       <c r="J25" s="113" t="s">
-        <v>365</v>
+        <v>568</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="L25" s="63" t="s">
-        <v>370</v>
+        <v>569</v>
+      </c>
+      <c r="L25" s="63">
+        <v>1</v>
       </c>
       <c r="M25" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="N25" s="64">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B26" s="58">
         <v>3</v>
       </c>
-      <c r="C26" s="63" t="s">
-        <v>453</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="E26" s="63">
-        <v>21352</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="G26" s="64">
-        <v>10</v>
-      </c>
-      <c r="H26" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="61">
         <v>3</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>359</v>
+        <v>570</v>
       </c>
       <c r="K26" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="L26" s="63">
-        <v>20</v>
+        <v>571</v>
+      </c>
+      <c r="L26" s="63" t="s">
+        <v>572</v>
       </c>
       <c r="M26" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N26" s="63">
-        <v>10</v>
+        <v>304</v>
+      </c>
+      <c r="N26" s="64">
+        <v>50</v>
       </c>
       <c r="O26" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
@@ -11455,16 +11798,24 @@
       <c r="I27" s="62">
         <v>4</v>
       </c>
-      <c r="J27" s="63" t="s">
-        <v>368</v>
+      <c r="J27" s="113" t="s">
+        <v>559</v>
       </c>
       <c r="K27" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="65"/>
+        <v>548</v>
+      </c>
+      <c r="L27" s="63" t="s">
+        <v>564</v>
+      </c>
+      <c r="M27" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="N27" s="63">
+        <v>20</v>
+      </c>
+      <c r="O27" s="65" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="28" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B28" s="58">
@@ -11479,8 +11830,12 @@
       <c r="I28" s="61">
         <v>5</v>
       </c>
-      <c r="J28" s="113"/>
-      <c r="K28" s="63"/>
+      <c r="J28" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="K28" s="63" t="s">
+        <v>369</v>
+      </c>
       <c r="L28" s="63"/>
       <c r="M28" s="63"/>
       <c r="N28" s="64"/>
@@ -12361,10 +12716,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O68"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -12445,7 +12800,7 @@
       <c r="C4" s="153"/>
       <c r="D4" s="170" t="str">
         <f>'인터페이스 목록'!C14</f>
-        <v>당월지표</v>
+        <v>쿠폰 조회</v>
       </c>
       <c r="E4" s="171"/>
       <c r="F4" s="171"/>
@@ -12466,7 +12821,7 @@
       <c r="C5" s="153"/>
       <c r="D5" s="182" t="str">
         <f>'인터페이스 목록'!D14</f>
-        <v>당월지표 조회</v>
+        <v>등록 쿠폰조회</v>
       </c>
       <c r="E5" s="183"/>
       <c r="F5" s="183"/>
@@ -12486,7 +12841,7 @@
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="175" t="s">
-        <v>376</v>
+        <v>575</v>
       </c>
       <c r="E6" s="176"/>
       <c r="F6" s="176"/>
@@ -12691,7 +13046,7 @@
       </c>
       <c r="C15" s="140"/>
       <c r="D15" s="141" t="s">
-        <v>376</v>
+        <v>575</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -12729,7 +13084,7 @@
       <c r="N16" s="145"/>
       <c r="O16" s="146"/>
     </row>
-    <row r="17" spans="2:15" ht="15.000000" customHeight="1">
+    <row r="17" spans="1:15" ht="15.000000" customHeight="1">
       <c r="B17" s="152" t="s">
         <v>32</v>
       </c>
@@ -12749,7 +13104,7 @@
       <c r="N17" s="145"/>
       <c r="O17" s="146"/>
     </row>
-    <row r="18" spans="2:15" ht="15.000000" customHeight="1">
+    <row r="18" spans="1:15" ht="15.000000" customHeight="1">
       <c r="B18" s="154" t="s">
         <v>131</v>
       </c>
@@ -12767,13 +13122,13 @@
       <c r="N18" s="160"/>
       <c r="O18" s="161"/>
     </row>
-    <row r="19" spans="2:15" ht="15.000000" customHeight="1">
+    <row r="19" spans="1:15" ht="15.000000" customHeight="1">
       <c r="B19" s="147" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="148"/>
       <c r="D19" s="149" t="s">
-        <v>396</v>
+        <v>594</v>
       </c>
       <c r="E19" s="150"/>
       <c r="F19" s="150"/>
@@ -12787,7 +13142,7 @@
       <c r="N19" s="150"/>
       <c r="O19" s="151"/>
     </row>
-    <row r="20" spans="2:15" ht="24.950000" customHeight="1">
+    <row r="20" spans="1:15" ht="24.950000" customHeight="1">
       <c r="B20" s="122" t="s">
         <v>34</v>
       </c>
@@ -12805,7 +13160,7 @@
       <c r="N20" s="123"/>
       <c r="O20" s="124"/>
     </row>
-    <row r="21" spans="2:15" ht="15.000000" customHeight="1">
+    <row r="21" spans="1:15" ht="15.000000" customHeight="1">
       <c r="B21" s="125" t="s">
         <v>230</v>
       </c>
@@ -12825,7 +13180,7 @@
       <c r="N21" s="129"/>
       <c r="O21" s="130"/>
     </row>
-    <row r="22" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+    <row r="22" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B22" s="48" t="s">
         <v>127</v>
       </c>
@@ -12847,7 +13202,7 @@
       <c r="N22" s="132"/>
       <c r="O22" s="134"/>
     </row>
-    <row r="23" spans="2:15" ht="15.000000" customHeight="1">
+    <row r="23" spans="1:15" ht="15.000000" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>35</v>
       </c>
@@ -12891,183 +13246,150 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+    <row r="24" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B24" s="58">
         <v>1</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="100">
-        <v>1098761234</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="59">
-        <v>11</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>140</v>
+      <c r="C24" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="64">
+        <v>10</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="I24" s="61">
         <v>1</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="K24" s="63" t="s">
-        <v>377</v>
+        <v>249</v>
       </c>
       <c r="L24" s="63">
-        <v>2020</v>
+        <v>4</v>
       </c>
       <c r="M24" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="N24" s="64">
         <v>3</v>
       </c>
       <c r="O24" s="65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B25" s="58">
         <v>2</v>
       </c>
-      <c r="C25" s="59" t="s">
-        <v>379</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="E25" s="59">
-        <v>2020</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="59">
-        <v>4</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>140</v>
-      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="62">
         <v>2</v>
       </c>
-      <c r="J25" s="63" t="s">
-        <v>387</v>
+      <c r="J25" s="113" t="s">
+        <v>576</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>378</v>
+        <v>584</v>
       </c>
       <c r="L25" s="63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M25" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="N25" s="64">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B26" s="58">
         <v>3</v>
       </c>
-      <c r="C26" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="E26" s="100">
-        <v>12</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="G26" s="59">
-        <v>2</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>140</v>
-      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="61">
         <v>3</v>
       </c>
-      <c r="J26" s="63" t="s">
-        <v>395</v>
+      <c r="J26" s="113" t="s">
+        <v>577</v>
       </c>
       <c r="K26" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="L26" s="114">
-        <v>1350000</v>
+        <v>530</v>
+      </c>
+      <c r="L26" s="63" t="s">
+        <v>585</v>
       </c>
       <c r="M26" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N26" s="63">
-        <v>10</v>
+        <v>304</v>
+      </c>
+      <c r="N26" s="64">
+        <v>50</v>
       </c>
       <c r="O26" s="65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A27" s="52" t="s">
+        <v>497</v>
+      </c>
       <c r="B27" s="58">
         <v>4</v>
       </c>
-      <c r="C27" s="63" t="s">
-        <v>453</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="E27" s="63">
-        <v>21352</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="64">
-        <v>10</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="62">
         <v>4</v>
       </c>
-      <c r="J27" s="63" t="s">
-        <v>439</v>
+      <c r="J27" s="113" t="s">
+        <v>578</v>
       </c>
       <c r="K27" s="63" t="s">
-        <v>381</v>
-      </c>
-      <c r="L27" s="63">
-        <v>183</v>
+        <v>46</v>
+      </c>
+      <c r="L27" s="63" t="s">
+        <v>586</v>
       </c>
       <c r="M27" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="N27" s="63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O27" s="65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B28" s="58">
         <v>5</v>
       </c>
@@ -13080,26 +13402,24 @@
       <c r="I28" s="61">
         <v>5</v>
       </c>
-      <c r="J28" s="63" t="s">
-        <v>389</v>
+      <c r="J28" s="113" t="s">
+        <v>579</v>
       </c>
       <c r="K28" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="L28" s="63">
-        <v>161</v>
+        <v>549</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>583</v>
       </c>
       <c r="M28" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N28" s="63">
-        <v>10</v>
-      </c>
-      <c r="O28" s="65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+        <v>304</v>
+      </c>
+      <c r="N28" s="64">
+        <v>30</v>
+      </c>
+      <c r="O28" s="65"/>
+    </row>
+    <row r="29" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B29" s="58">
         <v>6</v>
       </c>
@@ -13112,26 +13432,24 @@
       <c r="I29" s="62">
         <v>6</v>
       </c>
-      <c r="J29" s="63" t="s">
-        <v>390</v>
+      <c r="J29" s="113" t="s">
+        <v>581</v>
       </c>
       <c r="K29" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="L29" s="63">
-        <v>22</v>
+        <v>582</v>
+      </c>
+      <c r="L29" s="63" t="s">
+        <v>448</v>
       </c>
       <c r="M29" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N29" s="63">
-        <v>10</v>
-      </c>
-      <c r="O29" s="65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+        <v>304</v>
+      </c>
+      <c r="N29" s="64">
+        <v>1</v>
+      </c>
+      <c r="O29" s="65"/>
+    </row>
+    <row r="30" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B30" s="58">
         <v>7</v>
       </c>
@@ -13144,26 +13462,16 @@
       <c r="I30" s="61">
         <v>7</v>
       </c>
-      <c r="J30" s="63" t="s">
-        <v>391</v>
-      </c>
+      <c r="J30" s="113"/>
       <c r="K30" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="L30" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="M30" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N30" s="63">
-        <v>10</v>
-      </c>
-      <c r="O30" s="65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+        <v>587</v>
+      </c>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="65"/>
+    </row>
+    <row r="31" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B31" s="58">
         <v>8</v>
       </c>
@@ -13183,7 +13491,7 @@
       <c r="N31" s="64"/>
       <c r="O31" s="65"/>
     </row>
-    <row r="32" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+    <row r="32" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B32" s="58">
         <v>9</v>
       </c>
@@ -14003,8 +14311,8 @@
   </sheetPr>
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -14085,7 +14393,7 @@
       <c r="C4" s="153"/>
       <c r="D4" s="170" t="str">
         <f>'인터페이스 목록'!C15</f>
-        <v>내정보관리</v>
+        <v>차량등록</v>
       </c>
       <c r="E4" s="171"/>
       <c r="F4" s="171"/>
@@ -14106,7 +14414,7 @@
       <c r="C5" s="153"/>
       <c r="D5" s="182" t="str">
         <f>'인터페이스 목록'!D15</f>
-        <v>프로필 사진 변경</v>
+        <v>차량등록</v>
       </c>
       <c r="E5" s="183"/>
       <c r="F5" s="183"/>
@@ -14126,7 +14434,7 @@
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="175" t="s">
-        <v>405</v>
+        <v>595</v>
       </c>
       <c r="E6" s="176"/>
       <c r="F6" s="176"/>
@@ -14331,7 +14639,7 @@
       </c>
       <c r="C15" s="140"/>
       <c r="D15" s="141" t="s">
-        <v>405</v>
+        <v>595</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -14413,7 +14721,7 @@
       </c>
       <c r="C19" s="148"/>
       <c r="D19" s="149" t="s">
-        <v>408</v>
+        <v>596</v>
       </c>
       <c r="E19" s="150"/>
       <c r="F19" s="150"/>
@@ -14535,29 +14843,29 @@
       <c r="B24" s="58">
         <v>1</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="100">
-        <v>1098761234</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="59">
-        <v>11</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>140</v>
+      <c r="C24" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="64">
+        <v>10</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="I24" s="61">
         <v>1</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>406</v>
+        <v>605</v>
       </c>
       <c r="K24" s="63" t="s">
         <v>234</v>
@@ -14579,23 +14887,23 @@
       <c r="B25" s="58">
         <v>2</v>
       </c>
-      <c r="C25" s="63" t="s">
-        <v>453</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="E25" s="63">
-        <v>21352</v>
+      <c r="C25" s="59" t="s">
+        <v>601</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>597</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>602</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="G25" s="64">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H25" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="I25" s="62">
         <v>2</v>
@@ -14621,12 +14929,24 @@
       <c r="B26" s="58">
         <v>3</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
+      <c r="C26" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G26" s="64">
+        <v>20</v>
+      </c>
+      <c r="H26" s="65" t="s">
+        <v>305</v>
+      </c>
       <c r="I26" s="61">
         <v>3</v>
       </c>
@@ -14641,12 +14961,24 @@
       <c r="B27" s="58">
         <v>4</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="60"/>
+      <c r="C27" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>599</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G27" s="64">
+        <v>20</v>
+      </c>
+      <c r="H27" s="65" t="s">
+        <v>305</v>
+      </c>
       <c r="I27" s="62">
         <v>4</v>
       </c>
@@ -15554,8 +15886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -15636,7 +15968,7 @@
       <c r="C4" s="153"/>
       <c r="D4" s="170" t="str">
         <f>'인터페이스 목록'!C16</f>
-        <v>내정보관리</v>
+        <v>등록차량 조회</v>
       </c>
       <c r="E4" s="171"/>
       <c r="F4" s="171"/>
@@ -15657,7 +15989,7 @@
       <c r="C5" s="153"/>
       <c r="D5" s="182" t="str">
         <f>'인터페이스 목록'!D16</f>
-        <v>대리점 정보</v>
+        <v>등록차량 조회</v>
       </c>
       <c r="E5" s="183"/>
       <c r="F5" s="183"/>
@@ -15677,7 +16009,7 @@
       </c>
       <c r="C6" s="174"/>
       <c r="D6" s="175" t="s">
-        <v>411</v>
+        <v>606</v>
       </c>
       <c r="E6" s="176"/>
       <c r="F6" s="176"/>
@@ -15882,7 +16214,7 @@
       </c>
       <c r="C15" s="140"/>
       <c r="D15" s="141" t="s">
-        <v>411</v>
+        <v>606</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -15964,7 +16296,7 @@
       </c>
       <c r="C19" s="148"/>
       <c r="D19" s="149" t="s">
-        <v>429</v>
+        <v>612</v>
       </c>
       <c r="E19" s="150"/>
       <c r="F19" s="150"/>
@@ -16086,88 +16418,76 @@
       <c r="B24" s="58">
         <v>1</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="100">
-        <v>1098761234</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="59">
-        <v>11</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>140</v>
+      <c r="C24" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="64">
+        <v>10</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="I24" s="61">
         <v>1</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="K24" s="63" t="s">
-        <v>412</v>
-      </c>
-      <c r="L24" s="63" t="s">
-        <v>419</v>
+        <v>249</v>
+      </c>
+      <c r="L24" s="63">
+        <v>4</v>
       </c>
       <c r="M24" s="63" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="N24" s="64">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O24" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
       <c r="B25" s="58">
         <v>2</v>
       </c>
-      <c r="C25" s="63" t="s">
-        <v>453</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="E25" s="63">
-        <v>21352</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="64">
-        <v>10</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>140</v>
-      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="62">
         <v>2</v>
       </c>
-      <c r="J25" s="63" t="s">
-        <v>415</v>
+      <c r="J25" s="113" t="s">
+        <v>607</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="L25" s="63" t="s">
-        <v>428</v>
+        <v>569</v>
+      </c>
+      <c r="L25" s="63">
+        <v>1</v>
       </c>
       <c r="M25" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N25" s="64">
-        <v>50</v>
+        <v>304</v>
+      </c>
+      <c r="N25" s="63">
+        <v>10</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
@@ -16183,23 +16503,23 @@
       <c r="I26" s="61">
         <v>3</v>
       </c>
-      <c r="J26" s="63" t="s">
-        <v>417</v>
+      <c r="J26" s="113" t="s">
+        <v>601</v>
       </c>
       <c r="K26" s="63" t="s">
-        <v>416</v>
-      </c>
-      <c r="L26" s="114" t="s">
-        <v>420</v>
+        <v>597</v>
+      </c>
+      <c r="L26" s="59" t="s">
+        <v>602</v>
       </c>
       <c r="M26" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N26" s="63">
-        <v>50</v>
+        <v>304</v>
+      </c>
+      <c r="N26" s="64">
+        <v>20</v>
       </c>
       <c r="O26" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
@@ -16215,23 +16535,23 @@
       <c r="I27" s="62">
         <v>4</v>
       </c>
-      <c r="J27" s="63" t="s">
-        <v>418</v>
+      <c r="J27" s="113" t="s">
+        <v>322</v>
       </c>
       <c r="K27" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="L27" s="63">
-        <v>1012345677</v>
+        <v>598</v>
+      </c>
+      <c r="L27" s="59" t="s">
+        <v>603</v>
       </c>
       <c r="M27" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N27" s="63">
-        <v>11</v>
+        <v>304</v>
+      </c>
+      <c r="N27" s="64">
+        <v>20</v>
       </c>
       <c r="O27" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
@@ -16247,23 +16567,23 @@
       <c r="I28" s="61">
         <v>5</v>
       </c>
-      <c r="J28" s="63" t="s">
-        <v>421</v>
+      <c r="J28" s="113" t="s">
+        <v>323</v>
       </c>
       <c r="K28" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="L28" s="63" t="s">
-        <v>425</v>
+        <v>599</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>604</v>
       </c>
       <c r="M28" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N28" s="63">
-        <v>100</v>
+        <v>304</v>
+      </c>
+      <c r="N28" s="64">
+        <v>20</v>
       </c>
       <c r="O28" s="65" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
@@ -16279,21 +16599,11 @@
       <c r="I29" s="62">
         <v>6</v>
       </c>
-      <c r="J29" s="63" t="s">
-        <v>422</v>
-      </c>
-      <c r="K29" s="63" t="s">
-        <v>424</v>
-      </c>
-      <c r="L29" s="63" t="s">
-        <v>426</v>
-      </c>
-      <c r="M29" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="N29" s="63">
-        <v>100</v>
-      </c>
+      <c r="J29" s="113"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="64"/>
       <c r="O29" s="65"/>
     </row>
     <row r="30" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
@@ -17153,8 +17463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -17733,7 +18043,7 @@
         <v>438</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>445</v>
+        <v>613</v>
       </c>
       <c r="E25" s="59" t="s">
         <v>447</v>
@@ -17773,7 +18083,7 @@
         <v>440</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>444</v>
+        <v>614</v>
       </c>
       <c r="E26" s="100" t="s">
         <v>447</v>
@@ -17799,18 +18109,10 @@
       <c r="B27" s="58">
         <v>4</v>
       </c>
-      <c r="C27" s="59" t="s">
-        <v>441</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="E27" s="100" t="s">
-        <v>447</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>232</v>
-      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="98">
         <v>1</v>
       </c>
@@ -17829,18 +18131,10 @@
       <c r="B28" s="58">
         <v>5</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>448</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>232</v>
-      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="98">
         <v>1</v>
       </c>
@@ -17859,18 +18153,10 @@
       <c r="B29" s="58">
         <v>6</v>
       </c>
-      <c r="C29" s="63" t="s">
-        <v>453</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="E29" s="63">
-        <v>21352</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>232</v>
-      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="64">
         <v>10</v>
       </c>
@@ -18742,6 +19028,3451 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:O68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0.65234375" defaultRowHeight="15.000000"/>
+  <cols>
+    <col min="1" max="1" width="1.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="35" width="6.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="35" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="35" width="24.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="35" width="22.56055472" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="35" width="6.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="8" style="72" width="6.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="73" width="6.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="35" width="15.22722265" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" style="35" width="24.56055472" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" style="35" width="22.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="14" style="35" width="6.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" style="35" width="9.00500033" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15.000000" customHeight="1">
+      <c r="B1" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="2:15" ht="5.100000" customHeight="1">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="2:15" ht="30.000000" customHeight="1">
+      <c r="B3" s="178" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="180"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.000000" customHeight="1">
+      <c r="B4" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="153"/>
+      <c r="D4" s="170" t="str">
+        <f>'인터페이스 목록'!C18</f>
+        <v>최근 검색어 조회</v>
+      </c>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="181"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.000000" customHeight="1">
+      <c r="B5" s="152" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="153"/>
+      <c r="D5" s="182" t="str">
+        <f>'인터페이스 목록'!D18</f>
+        <v>최근 검색어 조회</v>
+      </c>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="184"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="154" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="174"/>
+      <c r="D6" s="175" t="s">
+        <v>615</v>
+      </c>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="177"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="166" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="167"/>
+      <c r="D7" s="168" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="170" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="171"/>
+      <c r="K7" s="172">
+        <v>43882</v>
+      </c>
+      <c r="L7" s="172"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="173"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="166" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="167"/>
+      <c r="D8" s="168" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="173"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="152" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="163"/>
+      <c r="D9" s="141" t="str">
+        <f>'인터페이스 목록'!B18</f>
+        <v>IF_SINCAR_AGENT_015</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="163"/>
+      <c r="K9" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="146"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="152" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="153"/>
+      <c r="D10" s="141" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="162" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="163"/>
+      <c r="K10" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="146"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="153"/>
+      <c r="D11" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="163"/>
+      <c r="K11" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="146"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="153"/>
+      <c r="D12" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="163"/>
+      <c r="K12" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="146"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="153"/>
+      <c r="D13" s="164" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="163"/>
+      <c r="K13" s="145" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="146"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="138"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141" t="s">
+        <v>615</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="146"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="153"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="143" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="144"/>
+      <c r="K16" s="145" t="s">
+        <v>227</v>
+      </c>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="146"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="152" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="153"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="146"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="161"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="148"/>
+      <c r="D19" s="149" t="s">
+        <v>627</v>
+      </c>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="151"/>
+    </row>
+    <row r="20" spans="2:15" ht="24.950000" customHeight="1">
+      <c r="B20" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="124"/>
+    </row>
+    <row r="21" spans="2:15" ht="15.000000" customHeight="1">
+      <c r="B21" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="130"/>
+    </row>
+    <row r="22" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B22" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="51"/>
+      <c r="K22" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="134"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.000000" customHeight="1">
+      <c r="B23" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="M23" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B24" s="58">
+        <v>1</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="64">
+        <v>10</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" s="61">
+        <v>1</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="L24" s="63">
+        <v>4</v>
+      </c>
+      <c r="M24" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="N24" s="64">
+        <v>3</v>
+      </c>
+      <c r="O24" s="65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B25" s="58">
+        <v>2</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="62">
+        <v>2</v>
+      </c>
+      <c r="J25" s="113" t="s">
+        <v>621</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>622</v>
+      </c>
+      <c r="L25" s="63">
+        <v>1</v>
+      </c>
+      <c r="M25" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="N25" s="63">
+        <v>10</v>
+      </c>
+      <c r="O25" s="65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B26" s="58">
+        <v>3</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61">
+        <v>3</v>
+      </c>
+      <c r="J26" s="113" t="s">
+        <v>362</v>
+      </c>
+      <c r="K26" s="63" t="s">
+        <v>623</v>
+      </c>
+      <c r="L26" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="M26" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="N26" s="64">
+        <v>50</v>
+      </c>
+      <c r="O26" s="65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B27" s="58">
+        <v>4</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="62">
+        <v>4</v>
+      </c>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63" t="s">
+        <v>624</v>
+      </c>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="65"/>
+    </row>
+    <row r="28" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B28" s="58">
+        <v>5</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61">
+        <v>5</v>
+      </c>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="65"/>
+    </row>
+    <row r="29" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B29" s="58">
+        <v>6</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="62">
+        <v>6</v>
+      </c>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="65"/>
+    </row>
+    <row r="30" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B30" s="58">
+        <v>7</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61">
+        <v>7</v>
+      </c>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="65"/>
+    </row>
+    <row r="31" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B31" s="58">
+        <v>8</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="62">
+        <v>8</v>
+      </c>
+      <c r="J31" s="113"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="65"/>
+    </row>
+    <row r="32" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B32" s="58">
+        <v>9</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61">
+        <v>9</v>
+      </c>
+      <c r="J32" s="113"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="65"/>
+    </row>
+    <row r="33" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B33" s="58">
+        <v>10</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="62">
+        <v>10</v>
+      </c>
+      <c r="J33" s="113"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="65"/>
+    </row>
+    <row r="34" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B34" s="58">
+        <v>11</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61">
+        <v>11</v>
+      </c>
+      <c r="J34" s="113"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="65"/>
+    </row>
+    <row r="35" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B35" s="58">
+        <v>12</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="62">
+        <v>12</v>
+      </c>
+      <c r="J35" s="113"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="65"/>
+    </row>
+    <row r="36" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B36" s="58">
+        <v>13</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61">
+        <v>13</v>
+      </c>
+      <c r="J36" s="113"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="65"/>
+    </row>
+    <row r="37" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B37" s="58">
+        <v>14</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="62">
+        <v>14</v>
+      </c>
+      <c r="J37" s="113"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="65"/>
+    </row>
+    <row r="38" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B38" s="58">
+        <v>15</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="61">
+        <v>15</v>
+      </c>
+      <c r="J38" s="113"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
+    </row>
+    <row r="39" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B39" s="58">
+        <v>16</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="62">
+        <v>16</v>
+      </c>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="65"/>
+    </row>
+    <row r="40" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B40" s="58">
+        <v>17</v>
+      </c>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="61">
+        <v>17</v>
+      </c>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="65"/>
+    </row>
+    <row r="41" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B41" s="58">
+        <v>18</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="62">
+        <v>18</v>
+      </c>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="65"/>
+    </row>
+    <row r="42" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B42" s="58">
+        <v>19</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="61">
+        <v>19</v>
+      </c>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="65"/>
+    </row>
+    <row r="43" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B43" s="58">
+        <v>20</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="62">
+        <v>20</v>
+      </c>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="65"/>
+    </row>
+    <row r="44" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B44" s="58">
+        <v>21</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="61">
+        <v>21</v>
+      </c>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="65"/>
+    </row>
+    <row r="45" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B45" s="58">
+        <v>22</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="62">
+        <v>22</v>
+      </c>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="65"/>
+    </row>
+    <row r="46" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B46" s="58">
+        <v>23</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="61">
+        <v>23</v>
+      </c>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="65"/>
+    </row>
+    <row r="47" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B47" s="58">
+        <v>24</v>
+      </c>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="62">
+        <v>24</v>
+      </c>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="65"/>
+    </row>
+    <row r="48" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B48" s="58">
+        <v>25</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="61">
+        <v>25</v>
+      </c>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
+    </row>
+    <row r="49" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B49" s="58">
+        <v>26</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="62">
+        <v>26</v>
+      </c>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="65"/>
+    </row>
+    <row r="50" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B50" s="58">
+        <v>27</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="61">
+        <v>27</v>
+      </c>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="65"/>
+    </row>
+    <row r="51" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B51" s="58">
+        <v>28</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="62">
+        <v>28</v>
+      </c>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="65"/>
+    </row>
+    <row r="52" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B52" s="58">
+        <v>29</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="61">
+        <v>29</v>
+      </c>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="65"/>
+    </row>
+    <row r="53" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B53" s="58">
+        <v>30</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="62">
+        <v>30</v>
+      </c>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="65"/>
+    </row>
+    <row r="54" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B54" s="58">
+        <v>31</v>
+      </c>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="61">
+        <v>31</v>
+      </c>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="65"/>
+    </row>
+    <row r="55" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B55" s="58">
+        <v>32</v>
+      </c>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="62">
+        <v>32</v>
+      </c>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="65"/>
+    </row>
+    <row r="56" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B56" s="58">
+        <v>33</v>
+      </c>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="61">
+        <v>33</v>
+      </c>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="65"/>
+    </row>
+    <row r="57" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B57" s="58">
+        <v>34</v>
+      </c>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="62">
+        <v>34</v>
+      </c>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="65"/>
+    </row>
+    <row r="58" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B58" s="58">
+        <v>35</v>
+      </c>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="61">
+        <v>35</v>
+      </c>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="65"/>
+    </row>
+    <row r="59" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B59" s="58">
+        <v>36</v>
+      </c>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="62">
+        <v>36</v>
+      </c>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="65"/>
+    </row>
+    <row r="60" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B60" s="58">
+        <v>37</v>
+      </c>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="61">
+        <v>37</v>
+      </c>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="65"/>
+    </row>
+    <row r="61" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B61" s="58">
+        <v>38</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="62">
+        <v>38</v>
+      </c>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="65"/>
+    </row>
+    <row r="62" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B62" s="58">
+        <v>39</v>
+      </c>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="61">
+        <v>39</v>
+      </c>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="65"/>
+    </row>
+    <row r="63" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B63" s="58">
+        <v>40</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="62">
+        <v>40</v>
+      </c>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="65"/>
+    </row>
+    <row r="64" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B64" s="58">
+        <v>41</v>
+      </c>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="61">
+        <v>41</v>
+      </c>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="65"/>
+    </row>
+    <row r="65" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B65" s="58">
+        <v>42</v>
+      </c>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="62">
+        <v>42</v>
+      </c>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="65"/>
+    </row>
+    <row r="66" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B66" s="58">
+        <v>43</v>
+      </c>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="61">
+        <v>43</v>
+      </c>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="65"/>
+    </row>
+    <row r="67" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B67" s="58">
+        <v>44</v>
+      </c>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="62">
+        <v>44</v>
+      </c>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="65"/>
+    </row>
+    <row r="68" spans="2:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B68" s="67">
+        <v>45</v>
+      </c>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="70">
+        <v>45</v>
+      </c>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K22:O22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink location="'인터페이스 목록'!A1" display="목록" ref="B1"/>
+  </hyperlinks>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView topLeftCell="C13" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <cols>
+    <col min="1" max="1" width="1.11611113" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="35" width="6.11611101" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="35" width="16.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="35" width="24.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="35" width="22.56055472" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="35" width="6.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="8" style="72" width="6.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="73" width="6.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="35" width="15.22722265" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" style="35" width="24.56055472" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" style="35" width="22.44944403" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="14" style="35" width="6.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" style="35" width="9.00500033" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15.000000" customHeight="1">
+      <c r="B1" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="2:15" ht="5.100000" customHeight="1">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="2:15" ht="30.000000" customHeight="1">
+      <c r="B3" s="178" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="180"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.000000" customHeight="1">
+      <c r="B4" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="153"/>
+      <c r="D4" s="170" t="str">
+        <f>'인터페이스 목록'!C19</f>
+        <v>예약신청</v>
+      </c>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="181"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.000000" customHeight="1">
+      <c r="B5" s="152" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="153"/>
+      <c r="D5" s="182" t="str">
+        <f>'인터페이스 목록'!D19</f>
+        <v>예약신청</v>
+      </c>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="184"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="154" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="174"/>
+      <c r="D6" s="175" t="s">
+        <v>616</v>
+      </c>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="177"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="166" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="167"/>
+      <c r="D7" s="168" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="170" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="171"/>
+      <c r="K7" s="172">
+        <v>43882</v>
+      </c>
+      <c r="L7" s="172"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="173"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="166" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="167"/>
+      <c r="D8" s="168" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="173"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="152" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="163"/>
+      <c r="D9" s="141" t="str">
+        <f>'인터페이스 목록'!B19</f>
+        <v>IF_SINCAR_AGENT_016</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="163"/>
+      <c r="K9" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="146"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="152" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="153"/>
+      <c r="D10" s="141" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="162" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="163"/>
+      <c r="K10" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="146"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="153"/>
+      <c r="D11" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="163"/>
+      <c r="K11" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="146"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="153"/>
+      <c r="D12" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="163"/>
+      <c r="K12" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="146"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="153"/>
+      <c r="D13" s="164" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="163"/>
+      <c r="K13" s="145" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="146"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="138"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141" t="s">
+        <v>616</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="144"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="146"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="153"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="143" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="144"/>
+      <c r="K16" s="145" t="s">
+        <v>227</v>
+      </c>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="146"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="152" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="153"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="146"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="161"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="148"/>
+      <c r="D19" s="149" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="151"/>
+    </row>
+    <row r="20" spans="1:15" ht="24.950000" customHeight="1">
+      <c r="B20" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="124"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.000000" customHeight="1">
+      <c r="B21" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="130"/>
+    </row>
+    <row r="22" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A22" s="52"/>
+      <c r="B22" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="51"/>
+      <c r="K22" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="134"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.000000" customHeight="1">
+      <c r="B23" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="M23" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A24" s="52"/>
+      <c r="B24" s="58">
+        <v>1</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="100">
+        <v>1098761234</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="59">
+        <v>11</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" s="61">
+        <v>1</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="M24" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="N24" s="64">
+        <v>1</v>
+      </c>
+      <c r="O24" s="65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A25" s="52"/>
+      <c r="B25" s="58">
+        <v>2</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" s="63">
+        <v>21352</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" s="64">
+        <v>10</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="I25" s="62">
+        <v>2</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="M25" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="N25" s="64">
+        <v>100</v>
+      </c>
+      <c r="O25" s="65"/>
+    </row>
+    <row r="26" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A26" s="52"/>
+      <c r="B26" s="58">
+        <v>3</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59" t="s">
+        <v>628</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61">
+        <v>3</v>
+      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="65"/>
+    </row>
+    <row r="27" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A27" s="52"/>
+      <c r="B27" s="58">
+        <v>4</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59" t="s">
+        <v>630</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="62">
+        <v>4</v>
+      </c>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="65"/>
+    </row>
+    <row r="28" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="58">
+        <v>5</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>632</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61">
+        <v>5</v>
+      </c>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="65"/>
+    </row>
+    <row r="29" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="58">
+        <v>6</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="62">
+        <v>6</v>
+      </c>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="65"/>
+    </row>
+    <row r="30" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="58">
+        <v>7</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61">
+        <v>7</v>
+      </c>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="65"/>
+    </row>
+    <row r="31" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A31" s="52"/>
+      <c r="B31" s="58">
+        <v>8</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="62">
+        <v>8</v>
+      </c>
+      <c r="J31" s="113"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="65"/>
+    </row>
+    <row r="32" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A32" s="52"/>
+      <c r="B32" s="58">
+        <v>9</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61">
+        <v>9</v>
+      </c>
+      <c r="J32" s="113"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="65"/>
+    </row>
+    <row r="33" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A33" s="52"/>
+      <c r="B33" s="58">
+        <v>10</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="62">
+        <v>10</v>
+      </c>
+      <c r="J33" s="113"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="65"/>
+    </row>
+    <row r="34" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A34" s="52"/>
+      <c r="B34" s="58">
+        <v>11</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61">
+        <v>11</v>
+      </c>
+      <c r="J34" s="113"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="65"/>
+    </row>
+    <row r="35" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A35" s="52"/>
+      <c r="B35" s="58">
+        <v>12</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="62">
+        <v>12</v>
+      </c>
+      <c r="J35" s="113"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="65"/>
+    </row>
+    <row r="36" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A36" s="52"/>
+      <c r="B36" s="58">
+        <v>13</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61">
+        <v>13</v>
+      </c>
+      <c r="J36" s="113"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="65"/>
+    </row>
+    <row r="37" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A37" s="52"/>
+      <c r="B37" s="58">
+        <v>14</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="62">
+        <v>14</v>
+      </c>
+      <c r="J37" s="113"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="65"/>
+    </row>
+    <row r="38" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A38" s="52"/>
+      <c r="B38" s="58">
+        <v>15</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="61">
+        <v>15</v>
+      </c>
+      <c r="J38" s="113"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
+    </row>
+    <row r="39" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A39" s="52"/>
+      <c r="B39" s="58">
+        <v>16</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="62">
+        <v>16</v>
+      </c>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="65"/>
+    </row>
+    <row r="40" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A40" s="52"/>
+      <c r="B40" s="58">
+        <v>17</v>
+      </c>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="61">
+        <v>17</v>
+      </c>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="65"/>
+    </row>
+    <row r="41" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A41" s="52"/>
+      <c r="B41" s="58">
+        <v>18</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="62">
+        <v>18</v>
+      </c>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="65"/>
+    </row>
+    <row r="42" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A42" s="52"/>
+      <c r="B42" s="58">
+        <v>19</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="61">
+        <v>19</v>
+      </c>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="65"/>
+    </row>
+    <row r="43" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A43" s="52"/>
+      <c r="B43" s="58">
+        <v>20</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="62">
+        <v>20</v>
+      </c>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="65"/>
+    </row>
+    <row r="44" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A44" s="52"/>
+      <c r="B44" s="58">
+        <v>21</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="61">
+        <v>21</v>
+      </c>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="65"/>
+    </row>
+    <row r="45" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A45" s="52"/>
+      <c r="B45" s="58">
+        <v>22</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="62">
+        <v>22</v>
+      </c>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="65"/>
+    </row>
+    <row r="46" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A46" s="52"/>
+      <c r="B46" s="58">
+        <v>23</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="61">
+        <v>23</v>
+      </c>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="65"/>
+    </row>
+    <row r="47" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A47" s="52"/>
+      <c r="B47" s="58">
+        <v>24</v>
+      </c>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="62">
+        <v>24</v>
+      </c>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="65"/>
+    </row>
+    <row r="48" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A48" s="52"/>
+      <c r="B48" s="58">
+        <v>25</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="61">
+        <v>25</v>
+      </c>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
+    </row>
+    <row r="49" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A49" s="52"/>
+      <c r="B49" s="58">
+        <v>26</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="62">
+        <v>26</v>
+      </c>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="65"/>
+    </row>
+    <row r="50" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A50" s="52"/>
+      <c r="B50" s="58">
+        <v>27</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="61">
+        <v>27</v>
+      </c>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="65"/>
+    </row>
+    <row r="51" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A51" s="52"/>
+      <c r="B51" s="58">
+        <v>28</v>
+      </c>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="62">
+        <v>28</v>
+      </c>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="65"/>
+    </row>
+    <row r="52" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A52" s="52"/>
+      <c r="B52" s="58">
+        <v>29</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="61">
+        <v>29</v>
+      </c>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="65"/>
+    </row>
+    <row r="53" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A53" s="52"/>
+      <c r="B53" s="58">
+        <v>30</v>
+      </c>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="62">
+        <v>30</v>
+      </c>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="65"/>
+    </row>
+    <row r="54" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A54" s="52"/>
+      <c r="B54" s="58">
+        <v>31</v>
+      </c>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="61">
+        <v>31</v>
+      </c>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="65"/>
+    </row>
+    <row r="55" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A55" s="52"/>
+      <c r="B55" s="58">
+        <v>32</v>
+      </c>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="62">
+        <v>32</v>
+      </c>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="65"/>
+    </row>
+    <row r="56" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A56" s="52"/>
+      <c r="B56" s="58">
+        <v>33</v>
+      </c>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="61">
+        <v>33</v>
+      </c>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="65"/>
+    </row>
+    <row r="57" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A57" s="52"/>
+      <c r="B57" s="58">
+        <v>34</v>
+      </c>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="62">
+        <v>34</v>
+      </c>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="65"/>
+    </row>
+    <row r="58" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A58" s="52"/>
+      <c r="B58" s="58">
+        <v>35</v>
+      </c>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="61">
+        <v>35</v>
+      </c>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="65"/>
+    </row>
+    <row r="59" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A59" s="52"/>
+      <c r="B59" s="58">
+        <v>36</v>
+      </c>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="62">
+        <v>36</v>
+      </c>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="65"/>
+    </row>
+    <row r="60" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A60" s="52"/>
+      <c r="B60" s="58">
+        <v>37</v>
+      </c>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="61">
+        <v>37</v>
+      </c>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="65"/>
+    </row>
+    <row r="61" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A61" s="52"/>
+      <c r="B61" s="58">
+        <v>38</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="62">
+        <v>38</v>
+      </c>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="65"/>
+    </row>
+    <row r="62" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A62" s="52"/>
+      <c r="B62" s="58">
+        <v>39</v>
+      </c>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="61">
+        <v>39</v>
+      </c>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="65"/>
+    </row>
+    <row r="63" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A63" s="52"/>
+      <c r="B63" s="58">
+        <v>40</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="62">
+        <v>40</v>
+      </c>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="65"/>
+    </row>
+    <row r="64" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A64" s="52"/>
+      <c r="B64" s="58">
+        <v>41</v>
+      </c>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="61">
+        <v>41</v>
+      </c>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="65"/>
+    </row>
+    <row r="65" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A65" s="52"/>
+      <c r="B65" s="58">
+        <v>42</v>
+      </c>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="62">
+        <v>42</v>
+      </c>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="65"/>
+    </row>
+    <row r="66" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A66" s="52"/>
+      <c r="B66" s="58">
+        <v>43</v>
+      </c>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="61">
+        <v>43</v>
+      </c>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="65"/>
+    </row>
+    <row r="67" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A67" s="52"/>
+      <c r="B67" s="58">
+        <v>44</v>
+      </c>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="62">
+        <v>44</v>
+      </c>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="65"/>
+    </row>
+    <row r="68" spans="1:15" s="52" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="A68" s="52"/>
+      <c r="B68" s="67">
+        <v>45</v>
+      </c>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="70">
+        <v>45</v>
+      </c>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="K22:O22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink location="'인터페이스 목록'!A1" display="목록" ref="B1"/>
+  </hyperlinks>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
+  <cols>
+    <col min="1" max="1" style="16" width="3.78277776" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="16" width="7.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="17" width="11.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="14" width="33.33833143" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="6" style="16" width="9.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="16384" style="14" width="8.89388869" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.250000">
+      <c r="A1" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="21">
+        <v>43880</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" ht="24.750000" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" ht="15.000000" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.79" right="0.79" top="0.79" bottom="0.79" header="0.24" footer="0.28"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -19507,7 +23238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J49"/>
   <sheetViews>
@@ -20906,295 +24637,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
-  <cols>
-    <col min="1" max="1" style="16" width="3.78277776" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="16" width="7.33833334" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="17" width="11.78277800" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="14" width="33.33833143" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="6" style="16" width="9.33833334" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="16384" style="14" width="8.89388869" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.250000">
-      <c r="A1" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="21">
-        <v>43880</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A5" s="20">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" ht="24.750000" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" ht="15.000000" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.79" right="0.79" top="0.79" bottom="0.79" header="0.24" footer="0.28"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.500000"/>
@@ -21204,8 +24652,7 @@
     <col min="3" max="3" style="35" width="19.00499937" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="35" width="41.11611006" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="35" width="9.67166636" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="35" width="6.33833334" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="35" width="6.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="7" style="35" width="6.33833334" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="35" width="10.33833334" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="35" width="8.00499985" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" style="35" width="1.56055555" customWidth="1" outlineLevel="0"/>
@@ -21391,7 +24838,7 @@
         <v>522</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="92"/>
@@ -21432,9 +24879,11 @@
         <v>355</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>538</v>
-      </c>
-      <c r="D12" s="92"/>
+        <v>546</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>546</v>
+      </c>
       <c r="E12" s="37"/>
       <c r="F12" s="92"/>
       <c r="G12" s="37" t="s">
@@ -21452,10 +24901,10 @@
         <v>356</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>352</v>
+        <v>545</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>354</v>
+        <v>567</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="92"/>
@@ -21474,10 +24923,10 @@
         <v>372</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>374</v>
+        <v>574</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="92"/>
@@ -21496,10 +24945,10 @@
         <v>373</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>397</v>
+        <v>595</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>404</v>
+        <v>595</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="92"/>
@@ -21518,10 +24967,10 @@
         <v>410</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>397</v>
+        <v>606</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>409</v>
+        <v>606</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="92"/>
@@ -21558,24 +25007,48 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="20.100000" customHeight="1">
-      <c r="B18" s="99"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="212" t="s">
+        <v>617</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>615</v>
+      </c>
       <c r="E18" s="37"/>
       <c r="F18" s="92"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="38"/>
+      <c r="G18" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="20.100000" customHeight="1">
-      <c r="B19" s="99"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
+      <c r="B19" s="212" t="s">
+        <v>618</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>616</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>616</v>
+      </c>
       <c r="E19" s="37"/>
       <c r="F19" s="92"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="38"/>
+      <c r="G19" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="20.100000" customHeight="1">
       <c r="B20" s="99"/>
@@ -21819,6 +25292,8 @@
     <hyperlink location="IF_SINCAR_AGENT_012!A1" display="IF_SINCAR_AGENT_012" ref="B15"/>
     <hyperlink location="IF_SINCAR_AGENT_013!A1" display="IF_SINCAR_AGENT_013" ref="B16"/>
     <hyperlink location="IF_SINCAR_AGENT_014!A1" display="IF_SINCAR_AGENT_014" ref="B17"/>
+    <hyperlink location="IF_SINCAR_AGENT_015!A1" display="IF_SINCAR_AGENT_015" ref="B18"/>
+    <hyperlink location="IF_SINCAR_AGENT_016!A1" display="IF_SINCAR_AGENT_016" ref="B19"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait"/>
@@ -21836,8 +25311,8 @@
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:O19"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
@@ -22568,7 +26043,7 @@
       </c>
       <c r="O29" s="65"/>
     </row>
-    <row r="30" spans="2:15" s="52" customFormat="1">
+    <row r="30" spans="2:15" s="52" customFormat="1" ht="12.000000">
       <c r="B30" s="58">
         <v>7</v>
       </c>
@@ -25467,7 +28942,7 @@
   </sheetPr>
   <dimension ref="B1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -27960,7 +31435,7 @@
   <dimension ref="B1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D19" sqref="D19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.500000"/>
